--- a/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="70">
   <si>
     <t>PERIOD</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>4/4,5/2023</t>
+  </si>
+  <si>
+    <t>9/11,12/2023</t>
   </si>
 </sst>
 </file>
@@ -628,8 +631,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -637,14 +643,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -654,6 +654,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1543,10 +1546,10 @@
   </sheetPr>
   <dimension ref="A2:K98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A69" activePane="bottomLeft"/>
-      <selection activeCell="D11" sqref="D11"/>
-      <selection pane="bottomLeft" activeCell="K89" sqref="K89"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A75" activePane="bottomLeft"/>
+      <selection activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1568,62 +1571,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1649,18 +1652,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1706,8 +1709,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>90.956000000000003</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>63.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1716,8 +1719,8 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>95.957999999999998</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>70.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3349,13 +3352,15 @@
       <c r="B87" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="40"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
@@ -3387,15 +3392,19 @@
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="41"/>
+      <c r="A89" s="41">
+        <v>45078</v>
+      </c>
       <c r="B89" s="20"/>
-      <c r="C89" s="13"/>
+      <c r="C89" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D89" s="40"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G89" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
@@ -3403,56 +3412,75 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
+      <c r="A90" s="41">
+        <v>45108</v>
+      </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G90" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="20"/>
+      <c r="K90" s="48"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="41"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="41">
+        <v>45139</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="48"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="41"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="13"/>
+      <c r="A92" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C92" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D92" s="40"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
-      <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="40"/>
+      <c r="G92" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H92" s="40">
+        <v>2</v>
+      </c>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
@@ -3461,10 +3489,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H93" s="40"/>
+      <c r="H93" s="40">
+        <v>1</v>
+      </c>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="48">
+        <v>45191</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41"/>
@@ -3548,17 +3580,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3593,10 +3625,10 @@
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A28" activePane="bottomLeft"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3690" topLeftCell="A40" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3618,62 +3650,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3699,18 +3731,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3757,7 +3789,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.956000000000003</v>
+        <v>31.956000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4583,10 +4615,16 @@
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" s="41"/>
-      <c r="B47" s="20"/>
+      <c r="A47" s="41">
+        <v>45139</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C47" s="13"/>
-      <c r="D47" s="40"/>
+      <c r="D47" s="40">
+        <v>1</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13" t="str">
@@ -4596,13 +4634,21 @@
       <c r="H47" s="40"/>
       <c r="I47" s="9"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="20"/>
+      <c r="K47" s="48">
+        <v>45160</v>
+      </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A48" s="41"/>
-      <c r="B48" s="20"/>
+      <c r="A48" s="41">
+        <v>45170</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C48" s="13"/>
-      <c r="D48" s="40"/>
+      <c r="D48" s="40">
+        <v>1</v>
+      </c>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13" t="str">
@@ -4612,7 +4658,9 @@
       <c r="H48" s="40"/>
       <c r="I48" s="9"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="20"/>
+      <c r="K48" s="48">
+        <v>45190</v>
+      </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>

--- a/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2ADAC71-BC90-4262-B937-90E45838ACFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -282,7 +281,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -662,8 +661,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -671,14 +673,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -688,6 +684,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,7 +1198,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1216,25 +1215,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1246,25 +1245,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1571,95 +1570,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K107"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="B96" sqref="B96"/>
+      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1667,7 +1666,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1680,24 +1679,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1741,7 +1740,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>63.75</v>
+        <v>65</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1751,12 +1750,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>73.75</v>
+        <v>75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1778,7 +1777,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1798,7 +1797,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1818,7 +1817,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1838,7 +1837,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1858,7 +1857,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1878,7 +1877,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1898,7 +1897,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1918,7 +1917,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1942,7 +1941,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1966,7 +1965,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1986,7 +1985,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2006,7 +2005,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2030,7 +2029,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -2050,7 +2049,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
         <v>46</v>
       </c>
@@ -2068,7 +2067,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -2088,7 +2087,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -2108,7 +2107,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -2128,7 +2127,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -2148,7 +2147,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -2168,7 +2167,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -2188,7 +2187,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -2208,7 +2207,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -2234,7 +2233,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -2254,7 +2253,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -2274,7 +2273,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -2294,7 +2293,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -2320,7 +2319,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -2340,7 +2339,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2358,7 +2357,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>43831</v>
       </c>
@@ -2378,7 +2377,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41">
         <v>43862</v>
       </c>
@@ -2398,7 +2397,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>43891</v>
       </c>
@@ -2418,7 +2417,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41">
         <v>43922</v>
       </c>
@@ -2438,7 +2437,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>43952</v>
       </c>
@@ -2458,7 +2457,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="41">
         <v>43983</v>
       </c>
@@ -2478,7 +2477,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -2498,7 +2497,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -2518,7 +2517,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -2538,7 +2537,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>44105</v>
       </c>
@@ -2558,7 +2557,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>44136</v>
       </c>
@@ -2578,7 +2577,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41">
         <v>44166</v>
       </c>
@@ -2602,7 +2601,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="47" t="s">
         <v>58</v>
       </c>
@@ -2620,7 +2619,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -2640,7 +2639,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -2660,7 +2659,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41">
         <v>44256</v>
       </c>
@@ -2680,7 +2679,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>44287</v>
       </c>
@@ -2700,7 +2699,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41">
         <v>44317</v>
       </c>
@@ -2720,7 +2719,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>44348</v>
       </c>
@@ -2740,7 +2739,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41">
         <v>44378</v>
       </c>
@@ -2760,7 +2759,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41">
         <v>44409</v>
       </c>
@@ -2780,7 +2779,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41">
         <v>44440</v>
       </c>
@@ -2800,7 +2799,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41">
         <v>44470</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41">
         <v>44501</v>
       </c>
@@ -2840,7 +2839,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="41">
         <v>44531</v>
       </c>
@@ -2864,7 +2863,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="47" t="s">
         <v>61</v>
       </c>
@@ -2882,7 +2881,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="41">
         <v>44562</v>
       </c>
@@ -2902,7 +2901,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="41">
         <v>44593</v>
       </c>
@@ -2922,7 +2921,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="41">
         <v>44621</v>
       </c>
@@ -2942,7 +2941,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="41">
         <v>44652</v>
       </c>
@@ -2962,7 +2961,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="41">
         <v>44682</v>
       </c>
@@ -2986,7 +2985,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="41">
         <v>44713</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41">
         <v>44743</v>
       </c>
@@ -3032,7 +3031,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="41">
         <v>44774</v>
       </c>
@@ -3058,7 +3057,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>52</v>
@@ -3080,7 +3079,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="41">
         <v>44805</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="41">
         <v>44835</v>
       </c>
@@ -3126,7 +3125,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="41">
         <v>44866</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="41">
         <v>44896</v>
       </c>
@@ -3174,7 +3173,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="47" t="s">
         <v>65</v>
       </c>
@@ -3192,7 +3191,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="41">
         <v>44927</v>
       </c>
@@ -3212,7 +3211,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41">
         <v>44958</v>
       </c>
@@ -3236,7 +3235,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="41"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -3258,7 +3257,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="41">
         <v>44986</v>
       </c>
@@ -3284,7 +3283,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="41"/>
       <c r="B83" s="20" t="s">
         <v>47</v>
@@ -3306,7 +3305,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="41">
         <v>45017</v>
       </c>
@@ -3332,7 +3331,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>47</v>
@@ -3354,7 +3353,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="41"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3376,7 +3375,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="41">
         <v>45047</v>
       </c>
@@ -3400,7 +3399,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>47</v>
@@ -3422,7 +3421,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="41">
         <v>45078</v>
       </c>
@@ -3442,7 +3441,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="41">
         <v>45108</v>
       </c>
@@ -3462,7 +3461,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="41">
         <v>45139</v>
       </c>
@@ -3481,7 +3480,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="41">
         <v>45170</v>
       </c>
@@ -3507,7 +3506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>47</v>
@@ -3529,7 +3528,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="41">
         <v>45200</v>
       </c>
@@ -3555,7 +3554,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="41">
         <v>45231</v>
       </c>
@@ -3575,25 +3574,27 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="41">
         <v>45261</v>
       </c>
       <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D96" s="40"/>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="40"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="47" t="s">
         <v>74</v>
       </c>
@@ -3611,7 +3612,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="41">
         <v>45292</v>
       </c>
@@ -3629,7 +3630,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
         <v>45323</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J99" s="12"/>
       <c r="K99" s="15"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="41">
         <v>45352</v>
       </c>
@@ -3665,7 +3666,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="41">
         <v>45383</v>
       </c>
@@ -3683,7 +3684,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="41">
         <v>45413</v>
       </c>
@@ -3701,7 +3702,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="41">
         <v>45444</v>
       </c>
@@ -3719,7 +3720,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="41">
         <v>45474</v>
       </c>
@@ -3737,7 +3738,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="41">
         <v>45505</v>
       </c>
@@ -3755,7 +3756,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="41">
         <v>45536</v>
       </c>
@@ -3773,7 +3774,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="41">
         <v>45566</v>
       </c>
@@ -3793,23 +3794,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3832,95 +3833,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4296" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="4290" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="B60" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="54">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3928,7 +3929,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3941,24 +3942,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3993,7 +3994,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4002,7 +4003,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>8.9560000000000031</v>
+        <v>7.9560000000000031</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4017,7 +4018,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="41">
         <v>43101</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
         <v>46</v>
       </c>
@@ -4057,7 +4058,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41">
         <v>43466</v>
       </c>
@@ -4079,7 +4080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="41">
         <v>43678</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4123,7 +4124,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>43770</v>
       </c>
@@ -4147,7 +4148,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -4169,7 +4170,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="41">
         <v>43800</v>
       </c>
@@ -4193,7 +4194,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="41"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -4215,7 +4216,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
         <v>53</v>
       </c>
@@ -4233,7 +4234,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="41">
         <v>43831</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="41">
         <v>43862</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -4299,7 +4300,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -4321,7 +4322,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="41">
         <v>43891</v>
       </c>
@@ -4345,7 +4346,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="41">
         <v>44166</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>58</v>
       </c>
@@ -4385,7 +4386,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="41">
         <v>44378</v>
       </c>
@@ -4409,7 +4410,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="41">
         <v>44531</v>
       </c>
@@ -4431,7 +4432,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="47" t="s">
         <v>61</v>
       </c>
@@ -4449,7 +4450,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="41">
         <v>44682</v>
       </c>
@@ -4473,7 +4474,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -4495,7 +4496,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -4517,7 +4518,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="41">
         <v>44713</v>
       </c>
@@ -4539,7 +4540,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -4561,7 +4562,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="41">
         <v>44743</v>
       </c>
@@ -4585,7 +4586,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="41">
         <v>44774</v>
       </c>
@@ -4609,7 +4610,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -4631,7 +4632,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="41">
         <v>44805</v>
       </c>
@@ -4655,7 +4656,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="41">
         <v>44835</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4699,7 +4700,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41">
         <v>44866</v>
       </c>
@@ -4723,7 +4724,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="41"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -4745,7 +4746,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="41">
         <v>44896</v>
       </c>
@@ -4769,7 +4770,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="47" t="s">
         <v>65</v>
       </c>
@@ -4787,7 +4788,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="41">
         <v>44927</v>
       </c>
@@ -4805,7 +4806,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="41">
         <v>44958</v>
       </c>
@@ -4827,7 +4828,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="41">
         <v>45139</v>
       </c>
@@ -4851,7 +4852,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="41">
         <v>45170</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="41">
         <v>45200</v>
       </c>
@@ -4899,7 +4900,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -4921,7 +4922,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -4943,7 +4944,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="41">
         <v>45231</v>
       </c>
@@ -4967,7 +4968,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>52</v>
@@ -4989,7 +4990,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5011,7 +5012,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="41">
         <v>45247</v>
       </c>
@@ -5035,7 +5036,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="41"/>
       <c r="B56" s="20" t="s">
         <v>70</v>
@@ -5057,7 +5058,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="41">
         <v>45261</v>
       </c>
@@ -5081,7 +5082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="20" t="s">
         <v>77</v>
@@ -5103,7 +5104,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>70</v>
@@ -5125,11 +5126,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="41"/>
-      <c r="B60" s="20"/>
+      <c r="B60" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="C60" s="13"/>
-      <c r="D60" s="40"/>
+      <c r="D60" s="40">
+        <v>1</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13" t="str">
@@ -5139,9 +5144,11 @@
       <c r="H60" s="40"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="48">
+        <v>45289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5157,7 +5164,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5173,7 +5180,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="42"/>
       <c r="B63" s="15"/>
       <c r="C63" s="43"/>
@@ -5204,10 +5211,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5230,7 +5237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5238,21 +5245,21 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5265,7 +5272,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5294,7 +5301,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>33.956000000000003</v>
       </c>
@@ -5320,7 +5327,7 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5335,10 +5342,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5358,7 +5365,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5384,7 +5391,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5410,7 +5417,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5436,7 +5443,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5462,7 +5469,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5488,7 +5495,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5514,7 +5521,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5540,7 +5547,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5566,7 +5573,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5586,7 +5593,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5606,7 +5613,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5626,7 +5633,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5647,7 +5654,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5668,7 +5675,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5689,7 +5696,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5710,7 +5717,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5731,7 +5738,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5752,7 +5759,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5773,7 +5780,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5815,7 +5822,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5836,7 +5843,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5857,7 +5864,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5878,7 +5885,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5899,7 +5906,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5920,7 +5927,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5941,7 +5948,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5962,7 +5969,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5983,7 +5990,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6004,7 +6011,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6025,7 +6032,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6046,7 +6053,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6055,7 +6062,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6064,7 +6071,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6073,7 +6080,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6082,7 +6089,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6091,7 +6098,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6100,7 +6107,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6109,7 +6116,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6118,7 +6125,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6127,7 +6134,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6136,7 +6143,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6145,7 +6152,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6154,7 +6161,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6163,7 +6170,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6172,7 +6179,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6181,7 +6188,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6190,7 +6197,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6199,7 +6206,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6208,7 +6215,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6217,7 +6224,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6226,7 +6233,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6235,7 +6242,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6244,7 +6251,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6253,7 +6260,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6262,7 +6269,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6271,7 +6278,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6280,7 +6287,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6289,7 +6296,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6298,7 +6305,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6307,7 +6314,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -661,11 +661,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -673,8 +670,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -684,9 +687,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1576,10 +1576,10 @@
   </sheetPr>
   <dimension ref="A2:K107"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="E97" sqref="E97"/>
+      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1601,62 +1601,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1682,18 +1682,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3616,7 +3616,9 @@
       <c r="A98" s="41">
         <v>45292</v>
       </c>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C98" s="13"/>
       <c r="D98" s="40"/>
       <c r="E98" s="9"/>
@@ -3625,10 +3627,14 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H98" s="40"/>
+      <c r="H98" s="40">
+        <v>1</v>
+      </c>
       <c r="I98" s="9"/>
       <c r="J98" s="11"/>
-      <c r="K98" s="20"/>
+      <c r="K98" s="48">
+        <v>45295</v>
+      </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="41">
@@ -3794,17 +3800,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -3839,7 +3845,7 @@
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="4290" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
       <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
@@ -3864,62 +3870,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="54">
+      <c r="F3" s="55">
         <v>41436</v>
       </c>
-      <c r="G3" s="51"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="49"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3945,18 +3951,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
+++ b/NEW HR/DONE/COSA, PAOLA GRACE PANGANIBAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\NEW HR\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CEE75C-A5FB-4B8A-AF80-10F43EFD5720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="80">
   <si>
     <t>PERIOD</t>
   </si>
@@ -281,7 +282,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -519,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +662,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1198,7 +1202,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1215,25 +1219,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K107" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K110" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1245,25 +1249,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K63" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1570,95 +1574,95 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K107"/>
+  <dimension ref="A2:K110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A84" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A93" activePane="bottomLeft"/>
       <selection activeCell="I10" sqref="I10"/>
-      <selection pane="bottomLeft" activeCell="K98" sqref="K98"/>
+      <selection pane="bottomLeft" activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1666,7 +1670,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1679,24 +1683,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1740,7 +1744,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>65</v>
+        <v>66.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1750,12 +1754,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>74</v>
+        <v>73.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>44</v>
       </c>
@@ -1777,7 +1781,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="41">
         <v>43101</v>
       </c>
@@ -1797,7 +1801,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="48"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43132</v>
       </c>
@@ -1817,7 +1821,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43160</v>
       </c>
@@ -1837,7 +1841,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="48"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41">
         <v>43191</v>
       </c>
@@ -1857,7 +1861,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="48"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43221</v>
       </c>
@@ -1877,7 +1881,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="48"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
         <v>43252</v>
       </c>
@@ -1897,7 +1901,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43282</v>
       </c>
@@ -1917,7 +1921,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41">
         <v>43313</v>
       </c>
@@ -1941,7 +1945,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="48"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="41">
         <v>43344</v>
       </c>
@@ -1965,7 +1969,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="48"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43374</v>
       </c>
@@ -1985,7 +1989,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="48"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43405</v>
       </c>
@@ -2005,7 +2009,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="48"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41">
         <v>43435</v>
       </c>
@@ -2029,7 +2033,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="48"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>63</v>
@@ -2049,7 +2053,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="47" t="s">
         <v>46</v>
       </c>
@@ -2067,7 +2071,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>43466</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="48"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="41">
         <v>43497</v>
       </c>
@@ -2107,7 +2111,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>43525</v>
       </c>
@@ -2127,7 +2131,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="48"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>43556</v>
       </c>
@@ -2147,7 +2151,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="41">
         <v>43586</v>
       </c>
@@ -2167,7 +2171,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="48"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>43617</v>
       </c>
@@ -2187,7 +2191,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41">
         <v>43647</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="48"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41">
         <v>43678</v>
       </c>
@@ -2233,7 +2237,7 @@
         <v>43705</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>43709</v>
       </c>
@@ -2253,7 +2257,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41">
         <v>43739</v>
       </c>
@@ -2273,7 +2277,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>43770</v>
       </c>
@@ -2293,7 +2297,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="48"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>43800</v>
       </c>
@@ -2319,7 +2323,7 @@
         <v>43817</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>66</v>
@@ -2339,7 +2343,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="47" t="s">
         <v>53</v>
       </c>
@@ -2357,7 +2361,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>43831</v>
       </c>
@@ -2377,7 +2381,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41">
         <v>43862</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="48"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>43891</v>
       </c>
@@ -2417,7 +2421,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="48"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41">
         <v>43922</v>
       </c>
@@ -2437,7 +2441,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>43952</v>
       </c>
@@ -2457,7 +2461,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="41">
         <v>43983</v>
       </c>
@@ -2477,7 +2481,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44013</v>
       </c>
@@ -2497,7 +2501,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44044</v>
       </c>
@@ -2517,7 +2521,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>44075</v>
       </c>
@@ -2537,7 +2541,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>44105</v>
       </c>
@@ -2557,7 +2561,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>44136</v>
       </c>
@@ -2577,7 +2581,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41">
         <v>44166</v>
       </c>
@@ -2601,7 +2605,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="47" t="s">
         <v>58</v>
       </c>
@@ -2619,7 +2623,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>44197</v>
       </c>
@@ -2639,7 +2643,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41">
         <v>44228</v>
       </c>
@@ -2659,7 +2663,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41">
         <v>44256</v>
       </c>
@@ -2679,7 +2683,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>44287</v>
       </c>
@@ -2699,7 +2703,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41">
         <v>44317</v>
       </c>
@@ -2719,7 +2723,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>44348</v>
       </c>
@@ -2739,7 +2743,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41">
         <v>44378</v>
       </c>
@@ -2759,7 +2763,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41">
         <v>44409</v>
       </c>
@@ -2779,7 +2783,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41">
         <v>44440</v>
       </c>
@@ -2799,7 +2803,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
         <v>44470</v>
       </c>
@@ -2819,7 +2823,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41">
         <v>44501</v>
       </c>
@@ -2839,7 +2843,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="41">
         <v>44531</v>
       </c>
@@ -2863,7 +2867,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="47" t="s">
         <v>61</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="41">
         <v>44562</v>
       </c>
@@ -2901,7 +2905,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
         <v>44593</v>
       </c>
@@ -2921,7 +2925,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
         <v>44621</v>
       </c>
@@ -2941,7 +2945,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
         <v>44652</v>
       </c>
@@ -2961,7 +2965,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
         <v>44682</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
         <v>44713</v>
       </c>
@@ -3007,7 +3011,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
         <v>44743</v>
       </c>
@@ -3031,7 +3035,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="41">
         <v>44774</v>
       </c>
@@ -3057,7 +3061,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="41"/>
       <c r="B73" s="20" t="s">
         <v>52</v>
@@ -3079,7 +3083,7 @@
         <v>44795</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="41">
         <v>44805</v>
       </c>
@@ -3105,7 +3109,7 @@
         <v>44825</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41">
         <v>44835</v>
       </c>
@@ -3125,7 +3129,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
         <v>44866</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="41">
         <v>44896</v>
       </c>
@@ -3173,7 +3177,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="47" t="s">
         <v>65</v>
       </c>
@@ -3191,7 +3195,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41">
         <v>44927</v>
       </c>
@@ -3211,7 +3215,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41">
         <v>44958</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -3257,7 +3261,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41">
         <v>44986</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>45008</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="41"/>
       <c r="B83" s="20" t="s">
         <v>47</v>
@@ -3305,7 +3309,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41">
         <v>45017</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
       <c r="B85" s="20" t="s">
         <v>47</v>
@@ -3353,7 +3357,7 @@
         <v>45036</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3375,7 +3379,7 @@
         <v>45033</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41">
         <v>45047</v>
       </c>
@@ -3399,7 +3403,7 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
       <c r="B88" s="20" t="s">
         <v>47</v>
@@ -3421,7 +3425,7 @@
         <v>45044</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="41">
         <v>45078</v>
       </c>
@@ -3441,7 +3445,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41">
         <v>45108</v>
       </c>
@@ -3461,7 +3465,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="48"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41">
         <v>45139</v>
       </c>
@@ -3480,7 +3484,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="48"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41">
         <v>45170</v>
       </c>
@@ -3506,7 +3510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
       <c r="B93" s="20" t="s">
         <v>47</v>
@@ -3528,7 +3532,7 @@
         <v>45191</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="41">
         <v>45200</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>45209</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41">
         <v>45231</v>
       </c>
@@ -3574,7 +3578,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="41">
         <v>45261</v>
       </c>
@@ -3594,7 +3598,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="47" t="s">
         <v>74</v>
       </c>
@@ -3612,20 +3616,22 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="41">
         <v>45292</v>
       </c>
       <c r="B98" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="40"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="40">
         <v>1</v>
@@ -3636,11 +3642,11 @@
         <v>45295</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="41">
-        <v>45323</v>
-      </c>
-      <c r="B99" s="15"/>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="41"/>
+      <c r="B99" s="15" t="s">
+        <v>47</v>
+      </c>
       <c r="C99" s="43"/>
       <c r="D99" s="44"/>
       <c r="E99" s="9"/>
@@ -3649,68 +3655,78 @@
         <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H99" s="44"/>
+      <c r="H99" s="44">
+        <v>1</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="12"/>
-      <c r="K99" s="15"/>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="41">
+      <c r="K99" s="49">
+        <v>45315</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="41"/>
+      <c r="B100" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C100" s="43"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="44">
+        <v>1</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="49">
+        <v>45309</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="41"/>
+      <c r="B101" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="43"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="44"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="49">
+        <v>45322</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="41">
+        <v>45323</v>
+      </c>
+      <c r="B102" s="15"/>
+      <c r="C102" s="43"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="44"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="15"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="41">
         <v>45352</v>
-      </c>
-      <c r="B100" s="20"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="40"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="20"/>
-      <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="40"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="20"/>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="41">
-        <v>45383</v>
-      </c>
-      <c r="B101" s="20"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="40"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="20"/>
-      <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="40"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="20"/>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="41">
-        <v>45413</v>
-      </c>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="40"/>
-      <c r="E102" s="9"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="40"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="41">
-        <v>45444</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3726,9 +3742,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="41">
-        <v>45474</v>
+        <v>45383</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3744,9 +3760,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="41">
-        <v>45505</v>
+        <v>45413</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3762,9 +3778,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="41">
-        <v>45536</v>
+        <v>45444</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3780,9 +3796,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="41">
-        <v>45566</v>
+        <v>45474</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3797,6 +3813,60 @@
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="41">
+        <v>45505</v>
+      </c>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="40"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="41">
+        <v>45536</v>
+      </c>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="40"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="41">
+        <v>45566</v>
+      </c>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="40"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3813,10 +3883,10 @@
     <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3839,95 +3909,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K63"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4290" topLeftCell="A54" activePane="bottomLeft"/>
+      <pane ySplit="4296" topLeftCell="A54" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
       <selection pane="bottomLeft" activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55">
+      <c r="F3" s="56">
         <v>41436</v>
       </c>
-      <c r="G3" s="50"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3935,7 +4005,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3948,24 +4018,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4000,7 +4070,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4024,7 +4094,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="41">
         <v>43101</v>
       </c>
@@ -4046,7 +4116,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="47" t="s">
         <v>46</v>
       </c>
@@ -4064,7 +4134,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="41">
         <v>43466</v>
       </c>
@@ -4086,7 +4156,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
         <v>43678</v>
       </c>
@@ -4110,7 +4180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="41"/>
       <c r="B14" s="20" t="s">
         <v>48</v>
@@ -4130,7 +4200,7 @@
         <v>43699</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>43770</v>
       </c>
@@ -4154,7 +4224,7 @@
         <v>43789</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41"/>
       <c r="B16" s="20" t="s">
         <v>47</v>
@@ -4176,7 +4246,7 @@
         <v>43794</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="41">
         <v>43800</v>
       </c>
@@ -4200,7 +4270,7 @@
         <v>43809</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="41"/>
       <c r="B18" s="20" t="s">
         <v>47</v>
@@ -4222,7 +4292,7 @@
         <v>43803</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="47" t="s">
         <v>53</v>
       </c>
@@ -4240,7 +4310,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="41">
         <v>43831</v>
       </c>
@@ -4262,7 +4332,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="41">
         <v>43862</v>
       </c>
@@ -4286,7 +4356,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="20" t="s">
         <v>54</v>
@@ -4306,7 +4376,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="41"/>
       <c r="B23" s="20" t="s">
         <v>47</v>
@@ -4328,7 +4398,7 @@
         <v>43887</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="41">
         <v>43891</v>
       </c>
@@ -4352,7 +4422,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
         <v>44166</v>
       </c>
@@ -4374,7 +4444,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>58</v>
       </c>
@@ -4392,7 +4462,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="41">
         <v>44378</v>
       </c>
@@ -4416,7 +4486,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="41">
         <v>44531</v>
       </c>
@@ -4438,7 +4508,7 @@
         <v>44537</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="47" t="s">
         <v>61</v>
       </c>
@@ -4456,7 +4526,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="41">
         <v>44682</v>
       </c>
@@ -4480,7 +4550,7 @@
         <v>44683</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="41"/>
       <c r="B31" s="20" t="s">
         <v>47</v>
@@ -4502,7 +4572,7 @@
         <v>44699</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="41"/>
       <c r="B32" s="20" t="s">
         <v>47</v>
@@ -4524,7 +4594,7 @@
         <v>44704</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="41">
         <v>44713</v>
       </c>
@@ -4546,7 +4616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="20" t="s">
         <v>47</v>
@@ -4568,7 +4638,7 @@
         <v>44726</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="41">
         <v>44743</v>
       </c>
@@ -4592,7 +4662,7 @@
         <v>44762</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="41">
         <v>44774</v>
       </c>
@@ -4616,7 +4686,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="41"/>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -4638,7 +4708,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="41">
         <v>44805</v>
       </c>
@@ -4662,7 +4732,7 @@
         <v>44819</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="41">
         <v>44835</v>
       </c>
@@ -4686,7 +4756,7 @@
         <v>44847</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="20" t="s">
         <v>48</v>
@@ -4706,7 +4776,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41">
         <v>44866</v>
       </c>
@@ -4730,7 +4800,7 @@
         <v>44890</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="41"/>
       <c r="B42" s="20" t="s">
         <v>47</v>
@@ -4752,7 +4822,7 @@
         <v>44888</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="41">
         <v>44896</v>
       </c>
@@ -4776,7 +4846,7 @@
         <v>44902</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="47" t="s">
         <v>65</v>
       </c>
@@ -4794,7 +4864,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="41">
         <v>44927</v>
       </c>
@@ -4812,7 +4882,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="41">
         <v>44958</v>
       </c>
@@ -4834,7 +4904,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="41">
         <v>45139</v>
       </c>
@@ -4858,7 +4928,7 @@
         <v>45160</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="41">
         <v>45170</v>
       </c>
@@ -4882,7 +4952,7 @@
         <v>45190</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="41">
         <v>45200</v>
       </c>
@@ -4906,7 +4976,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="41"/>
       <c r="B50" s="20" t="s">
         <v>52</v>
@@ -4928,7 +4998,7 @@
         <v>45224</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="41"/>
       <c r="B51" s="20" t="s">
         <v>70</v>
@@ -4950,7 +5020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="41">
         <v>45231</v>
       </c>
@@ -4974,7 +5044,7 @@
         <v>45247</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="41"/>
       <c r="B53" s="20" t="s">
         <v>52</v>
@@ -4996,7 +5066,7 @@
         <v>45243</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="41"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -5018,7 +5088,7 @@
         <v>45251</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="41">
         <v>45247</v>
       </c>
@@ -5042,7 +5112,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="41"/>
       <c r="B56" s="20" t="s">
         <v>70</v>
@@ -5064,7 +5134,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="41">
         <v>45261</v>
       </c>
@@ -5088,7 +5158,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="41"/>
       <c r="B58" s="20" t="s">
         <v>77</v>
@@ -5110,7 +5180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="41"/>
       <c r="B59" s="20" t="s">
         <v>70</v>
@@ -5132,7 +5202,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="41"/>
       <c r="B60" s="20" t="s">
         <v>52</v>
@@ -5154,7 +5224,7 @@
         <v>45289</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -5170,7 +5240,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="41"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -5186,7 +5256,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="42"/>
       <c r="B63" s="15"/>
       <c r="C63" s="43"/>
@@ -5217,10 +5287,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5243,7 +5313,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5251,34 +5321,34 @@
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="38" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="38" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="58" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5307,7 +5377,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>33.956000000000003</v>
       </c>
@@ -5333,7 +5403,7 @@
         <v>0.83300000000000007</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -5348,10 +5418,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="39" t="s">
         <v>28</v>
       </c>
@@ -5364,14 +5434,14 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
         <v>1</v>
       </c>
@@ -5397,7 +5467,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="38">
         <v>2</v>
       </c>
@@ -5423,7 +5493,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="38">
         <v>3</v>
       </c>
@@ -5449,7 +5519,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="38">
         <v>4</v>
       </c>
@@ -5475,7 +5545,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="38">
         <v>5</v>
       </c>
@@ -5501,7 +5571,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="38">
         <v>6</v>
       </c>
@@ -5527,7 +5597,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="38">
         <v>7</v>
       </c>
@@ -5553,7 +5623,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="38">
         <v>8</v>
       </c>
@@ -5579,7 +5649,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="38">
         <v>9</v>
       </c>
@@ -5599,7 +5669,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="38">
         <v>10</v>
       </c>
@@ -5619,7 +5689,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="38">
         <v>11</v>
       </c>
@@ -5639,7 +5709,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="38">
         <v>12</v>
       </c>
@@ -5660,7 +5730,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="38">
         <v>13</v>
       </c>
@@ -5681,7 +5751,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="38">
         <v>14</v>
       </c>
@@ -5702,7 +5772,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="38">
         <v>15</v>
       </c>
@@ -5723,7 +5793,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="38">
         <v>16</v>
       </c>
@@ -5744,7 +5814,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="38">
         <v>17</v>
       </c>
@@ -5765,7 +5835,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="38">
         <v>18</v>
       </c>
@@ -5786,7 +5856,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="38">
         <v>19</v>
       </c>
@@ -5807,7 +5877,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="38">
         <v>20</v>
       </c>
@@ -5828,7 +5898,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="38">
         <v>21</v>
       </c>
@@ -5849,7 +5919,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="38">
         <v>22</v>
       </c>
@@ -5870,7 +5940,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38">
         <v>23</v>
       </c>
@@ -5891,7 +5961,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="38">
         <v>24</v>
       </c>
@@ -5912,7 +5982,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="38">
         <v>25</v>
       </c>
@@ -5933,7 +6003,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="38">
         <v>26</v>
       </c>
@@ -5954,7 +6024,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="38">
         <v>27</v>
       </c>
@@ -5975,7 +6045,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="38">
         <v>28</v>
       </c>
@@ -5996,7 +6066,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="38">
         <v>29</v>
       </c>
@@ -6017,7 +6087,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="38">
         <v>30</v>
       </c>
@@ -6038,7 +6108,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="38">
         <v>31</v>
       </c>
@@ -6059,7 +6129,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="38">
         <v>32</v>
       </c>
@@ -6068,7 +6138,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="38">
         <v>33</v>
       </c>
@@ -6077,7 +6147,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="38">
         <v>34</v>
       </c>
@@ -6086,7 +6156,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="38">
         <v>35</v>
       </c>
@@ -6095,7 +6165,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="38">
         <v>36</v>
       </c>
@@ -6104,7 +6174,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="38">
         <v>37</v>
       </c>
@@ -6113,7 +6183,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="38">
         <v>38</v>
       </c>
@@ -6122,7 +6192,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="38">
         <v>39</v>
       </c>
@@ -6131,7 +6201,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="38">
         <v>40</v>
       </c>
@@ -6140,7 +6210,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="38">
         <v>41</v>
       </c>
@@ -6149,7 +6219,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="38">
         <v>42</v>
       </c>
@@ -6158,7 +6228,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="38">
         <v>43</v>
       </c>
@@ -6167,7 +6237,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="38">
         <v>44</v>
       </c>
@@ -6176,7 +6246,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="38">
         <v>45</v>
       </c>
@@ -6185,7 +6255,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="38">
         <v>46</v>
       </c>
@@ -6194,7 +6264,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="38">
         <v>47</v>
       </c>
@@ -6203,7 +6273,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="38">
         <v>48</v>
       </c>
@@ -6212,7 +6282,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="38">
         <v>49</v>
       </c>
@@ -6221,7 +6291,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="38">
         <v>50</v>
       </c>
@@ -6230,7 +6300,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="38">
         <v>51</v>
       </c>
@@ -6239,7 +6309,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="38">
         <v>52</v>
       </c>
@@ -6248,7 +6318,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="38">
         <v>53</v>
       </c>
@@ -6257,7 +6327,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="38">
         <v>54</v>
       </c>
@@ -6266,7 +6336,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="38">
         <v>55</v>
       </c>
@@ -6275,7 +6345,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="38">
         <v>56</v>
       </c>
@@ -6284,7 +6354,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="38">
         <v>57</v>
       </c>
@@ -6293,7 +6363,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="38">
         <v>58</v>
       </c>
@@ -6302,7 +6372,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="38">
         <v>59</v>
       </c>
@@ -6311,7 +6381,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="38">
         <v>60</v>
       </c>
@@ -6320,7 +6390,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
